--- a/biology/Zoologie/Agilisaurus/Agilisaurus.xlsx
+++ b/biology/Zoologie/Agilisaurus/Agilisaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agilisaurus louderbacki
 Agilisaurus (« reptile agile ») est un genre éteint de dinosaure ornithischien de la famille des Hypsilophodontidae. ce genre et monotypique et son espèce type est Agilisaurus louderbacki.
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Agilisaurus a été découvert en Chine (Sichuan), et décrite en 1983 sous le nom d'A. multidens He &amp; Cai, 1983/Peng, 1990 renommée Hexinlusaurus multidens He &amp; Cai, 1983)[1],[2].
-La seule espèce valide a été décrite en 1990, puis 1992 sous le nom d'A. louderbacki, par Jin Peng[3],[4].
-Ces ornithopodes vivaient au Jurassique moyen. En effet, ils ont été découverts dans la « formation de Shaximiao » du sommet de la formation de Dashanpu et sont ainsi datés du Bathonien à Callovien[5], soit un âge entre 168,2 ± 1,2 et 161,5 ± 1,0 Ma (millions d'années).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Agilisaurus a été découvert en Chine (Sichuan), et décrite en 1983 sous le nom d'A. multidens He &amp; Cai, 1983/Peng, 1990 renommée Hexinlusaurus multidens He &amp; Cai, 1983),.
+La seule espèce valide a été décrite en 1990, puis 1992 sous le nom d'A. louderbacki, par Jin Peng,.
+Ces ornithopodes vivaient au Jurassique moyen. En effet, ils ont été découverts dans la « formation de Shaximiao » du sommet de la formation de Dashanpu et sont ainsi datés du Bathonien à Callovien, soit un âge entre 168,2 ± 1,2 et 161,5 ± 1,0 Ma (millions d'années).
 Son nom signifie reptile agile
 Période : Jurassique moyen
 Taille : 1,5 m de long, 45 cm de haut, 20–40 kg
@@ -549,7 +563,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il présente toutes les caractéristiques des euornithopodes : un cou assez court (17 cm), une longue queue (1,07 m), des membres postérieurs faits pour la course, un crâne (11,1 cm) pourvu de petites dents très nombreuses et des yeux larges. En outre, des tendons ossifiés, communs chez les ornithopodes, sont présents au niveau des vertèbres dorsales et sacrées.
 Décompte vertébral: 9 cervicales, 15 dorsales, 5 sacrées et 44 caudales.</t>
@@ -580,7 +596,9 @@
           <t>Inventaire des fossiles retrouvés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Agilisaurus louderbacki : un squelette presque complet, avec un crâne
 « Agilisaurus multidens » syn. Hexinlusaurus multidens : deux squelettes presque complets.</t>
@@ -611,9 +629,11 @@
           <t>Cladogramme dans Ornithischia</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cladogramme fut proposé par Boyd et al. en 2009[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cladogramme fut proposé par Boyd et al. en 2009.
 Les autres Ornithopodes au-delà de Tenontosaurus sont omis. Les dinosaures décrits comme des Hypsilophodontes se déclinent d'Agilisaurus ou Hexinlusaurus à Hypsilophodon ou Gasparinisaura.
 </t>
         </is>
